--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1252,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="20">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C16" s="21"/>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1252,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="20">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="21"/>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -520,9 +520,6 @@
     </r>
   </si>
   <si>
-    <t>147871-134</t>
-  </si>
-  <si>
     <t>normal_user</t>
   </si>
   <si>
@@ -545,6 +542,9 @@
   </si>
   <si>
     <t>C:\common\ReportforWOCreationTill_Ingest.xlsx</t>
+  </si>
+  <si>
+    <t>147871-119</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>8</v>
@@ -1140,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>5</v>
@@ -1225,7 +1225,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C13" s="21"/>
     </row>
@@ -1306,7 +1306,7 @@
         <v>65</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="21"/>
     </row>
@@ -1348,25 +1348,25 @@
     </row>
     <row r="27" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>41</v>
@@ -1396,7 +1396,7 @@
         <v>138</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="21"/>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -475,6 +475,33 @@
     <t>sowmya.jagadish@primefocus.com;vamsikrishna.g@primefocus.com;aditya.kulshreshtha@primefocus.com;mansurabegum.tatwanagi@primefocus.com;manohar.r@primefocus.com;madhweshdas.cv@primefocus.com;bharath.doddagoudar@primefocus.com</t>
   </si>
   <si>
+    <t>normal_user</t>
+  </si>
+  <si>
+    <t>https://turnertrackerqa.clearhub.tv/BC/Product/Modules/SignIn.aspx</t>
+  </si>
+  <si>
+    <t>subtitle_flag</t>
+  </si>
+  <si>
+    <t>dubbing_flag</t>
+  </si>
+  <si>
+    <t>Automation Report-Till Ingest</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>edition_validate</t>
+  </si>
+  <si>
+    <t>C:\common\ReportforWOCreationTill_Ingest.xlsx</t>
+  </si>
+  <si>
+    <t>147871-119</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">{
 </t>
@@ -497,7 +524,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> "titleId": "147871",
-  "chapterId": "134",
+  "chapterId": "119",
   "networkDetails": [
     {
       "networkId": "TOON",
@@ -518,33 +545,6 @@
   "priority": "NORMAL, IMMEDIATE, URGENT"
 }</t>
     </r>
-  </si>
-  <si>
-    <t>normal_user</t>
-  </si>
-  <si>
-    <t>https://turnertrackerqa.clearhub.tv/BC/Product/Modules/SignIn.aspx</t>
-  </si>
-  <si>
-    <t>subtitle_flag</t>
-  </si>
-  <si>
-    <t>dubbing_flag</t>
-  </si>
-  <si>
-    <t>Automation Report-Till Ingest</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>edition_validate</t>
-  </si>
-  <si>
-    <t>C:\common\ReportforWOCreationTill_Ingest.xlsx</t>
-  </si>
-  <si>
-    <t>147871-119</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>8</v>
@@ -1140,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>5</v>
@@ -1162,7 +1162,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C6" s="21"/>
     </row>
@@ -1225,7 +1225,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="21"/>
     </row>
@@ -1306,7 +1306,7 @@
         <v>65</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="21"/>
     </row>
@@ -1348,25 +1348,25 @@
     </row>
     <row r="27" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>41</v>
@@ -1396,7 +1396,7 @@
         <v>138</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="21"/>
     </row>
